--- a/Data_clean/MCAS/Estados_US/Edos_USA_2013/ALASKA_2013.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2013/ALASKA_2013.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Total</t>
@@ -460,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Total</t>
@@ -491,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Total</t>
@@ -522,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -535,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Total</t>
@@ -566,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Taxco De Alarcon</t>
@@ -579,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Total</t>
@@ -610,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Cuautepec De Hinojosa</t>
@@ -623,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Pachuca De Soto</t>
@@ -636,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Tulancingo De Bravo</t>
@@ -649,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Total</t>
@@ -680,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -693,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Hostotipaquillo</t>
@@ -706,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Jalostotitlan</t>
@@ -719,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Puerto Vallarta</t>
@@ -732,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>San Miguel El Alto</t>
@@ -745,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Tepatitlan De Morelos</t>
@@ -758,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Tequila</t>
@@ -771,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Tizapan El Alto</t>
@@ -784,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Total</t>
@@ -815,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Apatzingan</t>
@@ -828,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Charo</t>
@@ -841,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Uruapan</t>
@@ -854,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -867,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Total</t>
@@ -898,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Tepic</t>
@@ -911,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Total</t>
@@ -942,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Santo Domingo De Morelos</t>
@@ -955,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Total</t>
@@ -986,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Mazatlan</t>
@@ -999,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1030,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Etchojoa</t>
@@ -1043,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Hermosillo</t>
@@ -1056,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1087,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Ojocaliente</t>
@@ -1100,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Zacatecas</t>
@@ -1113,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Total</t>
